--- a/JS_Course.xlsx
+++ b/JS_Course.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="14355" windowHeight="7680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JS Essentials" sheetId="2" r:id="rId1"/>
     <sheet name="C#" sheetId="3" r:id="rId2"/>
     <sheet name="SQL Server" sheetId="4" r:id="rId3"/>
+    <sheet name="Epi Server" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="840">
   <si>
     <t>SpiderMonkey</t>
   </si>
@@ -3288,12 +3289,2784 @@
   <si>
     <t>Iqueryable vs Ienumerable</t>
   </si>
+  <si>
+    <t>Epi Find</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">comes in two versions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">connections. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Standard version which works within the framework of a website, and the Connections version which you can use to index external websites that have content relevant to your website for greater accuracy in search results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Find is an enterprise-grade SaaS (Search as a Service) search solution that improves free text search as well as the filtering and displaying of search results. As a cloud-based solution, it offers high scalability and ranks high on user-friendliness.Find uses the search behaviour of users, based on factors like search keywords and contents browsed, to optimize search results for future visits. Indexing can be done on any website object and not just web pages, making the search process very quick. It fine-tunes the search process so that you can make it easy for visitors to find relevant content with minimal manual effort.</t>
+  </si>
+  <si>
+    <r>
+      <t>setTimeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(myCallback, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>That doesn’t mean that myCallback will be executed in 1,000 ms but rather that, in 1,000 ms, myCallback will be added to the queue. The queue, however, might have other events that have been added earlier — your callback will have to wait.</t>
+  </si>
+  <si>
+    <t>Job Queue</t>
+  </si>
+  <si>
+    <t>https://blog.sessionstack.com/how-javascript-works-event-loop-and-the-rise-of-async-programming-5-ways-to-better-coding-with-2f077c4438b5</t>
+  </si>
+  <si>
+    <t>A new concept called the “Job Queue” was introduced in ES6. It’s a layer on top of the Event Loop queue. You are most likely to bump into it when dealing with the asynchronous behavior of Promises. the Job Queue is a queue that’s attached to the end of every tick in the Event Loop queue. Certain async actions that may occur during a tick of the event loop will not cause a whole new event to be added to the event loop queue, but will instead add an item (aka Job) to the end of the current tick’s Job queue.</t>
+  </si>
+  <si>
+    <t>Jobs are kind of like the setTimeout(callback, 0) “hack” but implemented in such a way that they introduce a much more well-defined and guaranteed ordering: later, but as soon as possible</t>
+  </si>
+  <si>
+    <t>waste basket support</t>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> defines a set of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, for example, page name and publish date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is an instance of the .NET class defining the page type. When a page is created in edit view, values are assigned to the properties, and stored in the database.</t>
+    </r>
+  </si>
+  <si>
+    <t>Page Type</t>
+  </si>
+  <si>
+    <r>
+      <t>page types are usually defined in code as classes based on a model inheriting from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.PageData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> defines a set of properties, for example a heading and a page listing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is an instance of the .NET class defining the block type.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As for pages, associated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controllers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>templates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> are used to render the block in some context.</t>
+    </r>
+  </si>
+  <si>
+    <t>Block Type</t>
+  </si>
+  <si>
+    <r>
+      <t>block types are usually defined in code as classes based on a model inheriting from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.BlockData</t>
+    </r>
+  </si>
+  <si>
+    <t>Why virtual properties in Pages</t>
+  </si>
+  <si>
+    <r>
+      <t>Why are the properties declared as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>virtual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> here? What happens in the background is that a proxy class is created for the page type, and data is loaded from the database to a property carrier (Property), receiving the data. Through Castle (Inversion of Control tool), the properties in the proxy page type will be set, and this only works if properties are declared as virtual. If the properties are not declared virtual, you need to implement get/set so that these will read/write data to the underlying property collection instead.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the block is stored, loaded, and versioned as part of the page.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shared block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the block</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is stored, loaded and versioned individually as an own entity, and can be referenced from multiple pages or blocks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Block instance</t>
+  </si>
+  <si>
+    <t>Block as Partial views</t>
+  </si>
+  <si>
+    <r>
+      <t>For performance reasons, it is recommended to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use partial views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>directly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and not controllers, for block types. You can create a view to be used without a controller through naming convention in MVC.</t>
+    </r>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <r>
+      <t>Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> that inherits from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Web.Mvc.BlockController&lt;TBlockData&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TBlockData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is your block type. The system calls this controller for the block type, if it is chosen as the renderer of the block type. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Web.Mvc.BlockController&lt;TBlockData&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> has an implementation of the action </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which calls a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partial view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with the same name as the block type.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>partial view without a controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, naming the view the same as the block type. If the view is chosen as the renderer of the block type, the view is called with the page data object directly, without controller involvement. This approach is the recommended way to render blocks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shared blocks folders</t>
+  </si>
+  <si>
+    <t>A folder in the shared blocks structure can have other folders or shared blocks as children, and a shared block cannot have any children.</t>
+  </si>
+  <si>
+    <r>
+      <t>As previously mentioned, shared blocks are stored, loaded and versioned individually as an own entity in the database. Shared blocks are structured using folders, and a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is an instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.ContentFolder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Content folders do not have associated rendering, and therefore no visual appearance on the website.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You set editorial access on folders to specify which folders that are available for an editor. The global folder root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.SiteSettings.Current.GlobalBlocksRoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, is the root folder for shared blocks that are available for sites in an enterprise scenario. There can be a site-specific folder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.SiteSettings.Current.SiteBlocksRoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, containing the folder structure for shared blocks. In a single-site scenario, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GlobalBlocksRoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SiteBlocksRoot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> typically point to the same folder.</t>
+    </r>
+  </si>
+  <si>
+    <t>IContentRepository</t>
+  </si>
+  <si>
+    <r>
+      <t>EPiServer.IContentRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is the primary API that defines repository methods for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> objects. Through the repository, you can perform CRUD (Create, Read, Update, Delete) operations on content instances implementing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Core.IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, for example listing and move</t>
+    </r>
+  </si>
+  <si>
+    <t>You would normally get an instance of any interface by using dependency injection (for example by constructor injection in MVC). But you can also get a content instance by calling the  inversion of control (IoC) container directly:</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> repository = EPiServer.ServiceLocation.ServiceLocator.Current.GetInstance&lt;IContentRepository&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If you only need read-only access to content use the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interface instead:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loader = EPiServer.ServiceLocation.ServiceLocator.Current.GetInstance&lt;IContentLoader&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If you do not know an item's type, you can safely load the item with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> as type argument. (The constraint is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but in runtime, each instance loadable from repository implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content = loader.Get&lt;IContent&gt;(pageLink);</t>
+    </r>
+  </si>
+  <si>
+    <t>Episerver CMS stores content in a tree hierarchy. </t>
+  </si>
+  <si>
+    <r>
+      <t>To persist an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> instance, call the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method. If the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> instance implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IReadOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, call </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateWritableClone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> before you modify the instance. </t>
+    </r>
+  </si>
+  <si>
+    <t>DataFactory</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.DataFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class, which has an Instance property that gives access to the singleton instance of the repository, is a facade that implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and forwards all calls to the actual implementation (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> also acts as a front for other interfaces such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentVersionRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is the legacy implementation for many API:s and is only kept for backwards compatibility.</t>
+    </r>
+  </si>
+  <si>
+    <t>Synchronization</t>
+  </si>
+  <si>
+    <t>If the synchronization engine is set up, the process begins during website initialization, the synchronization engine will scan and validate available content types and properties created in code or from the CMS admin view.</t>
+  </si>
+  <si>
+    <t>The synchronization engine creates a content type in CMS for each class found in code. The content type created in the database contains only the information required to fulfill the database constraints and to associate the row in the database with the class. Additional settings defined in code are stored in-memory.</t>
+  </si>
+  <si>
+    <t>Synchronization Process</t>
+  </si>
+  <si>
+    <t>1. Validate the models</t>
+  </si>
+  <si>
+    <t>2. Analyze the content types and properties</t>
+  </si>
+  <si>
+    <t>3. Commit new content types and properties</t>
+  </si>
+  <si>
+    <t>4. Merge database settings</t>
+  </si>
+  <si>
+    <t>Content Type attribute</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ContentType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> attribute is required for all content types. It is located in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.DataAnnotations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>namespace and has the following configurable properties.</t>
+    </r>
+  </si>
+  <si>
+    <t>AvailableContentTypesAttribute</t>
+  </si>
+  <si>
+    <t>Availability: Defines whether all or no content types are available. If you set none, other settings on the attribute is ignored.</t>
+  </si>
+  <si>
+    <t>Include: A type array of typed content to specify which content types are available under a content instance of the type with the attribute.</t>
+  </si>
+  <si>
+    <t>Exclude: A type array of typed content to specify which content types are not available under a content instance of the type with the attribute.</t>
+  </si>
+  <si>
+    <t>IncludeOn: states that the content with this attribute is available under the typed content in the type array.</t>
+  </si>
+  <si>
+    <t>ExcludeOn: states that the content with this attribute is not available under any of the typed content in the type array.</t>
+  </si>
+  <si>
+    <t>Content type groups</t>
+  </si>
+  <si>
+    <t>You cannot edit groups that are defined in code from the admin view.</t>
+  </si>
+  <si>
+    <t>Edit Hint</t>
+  </si>
+  <si>
+    <r>
+      <t>EditHint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is used to trigger a full page refresh in edit view, when changing the value of a specific property.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you work with Episerver content data in MVC, the view does not have to take the content data object as view model. The received content data populates a view model that the view uses when a page loads. </t>
+  </si>
+  <si>
+    <t>When a view uses a view model instead of the content data object, the edit view is unaware of connections between the properties on the view model and the properties on the content data object, which means that you cannot update parts of the page when you change content in the form edit view. However, you can use helper methods to show the correct data on the preview window. See example below.</t>
+  </si>
+  <si>
+    <r>
+      <t>GetEditHints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GetEditHints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extension, located in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Web.Mvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, makes a connection between a view model property and a content data property, when you use it on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ViewData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> property in the controller. This method returns a class that handles two collections on the ViewData object. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ask ViewData to Content data mapping???</t>
+  </si>
+  <si>
+    <t>Full refresh properties</t>
+  </si>
+  <si>
+    <r>
+      <t>Some content data properties cannot have a one-to-one relation with a property on the view model. For example, the property </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShowBanner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> displays a banner on the page if the property is set to true, so this property may need a full refresh of the page to render a correct preview, because it can affect a lot of things on the page. AddFullRefreshFor on the class uses expressions to get the property from the content data object, which is added to the list. </t>
+    </r>
+  </si>
+  <si>
+    <t>Html.PropertyFor</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Html.PropertyFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> methods are wrappers around </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Html.DisplayFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which create connections between view model properties and content data properties in edit mode. In view mode, the PropertyFor directly calls DisplayFor, but in edit view a wrapping element is created around the property that contains a connection to a content data property (if a connection exist).</t>
+    </r>
+  </si>
+  <si>
+    <t>Html.FullRefreshPropertiesMetaData</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Html.FullRefreshPropertiesMetaData()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extensions contains a method without any parameters (default) and another that takes an array of property names. The default method adds the properties in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ViewData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> collection for full refresh. The overload with the string array adds only the property names in the array for full refresh.</t>
+    </r>
+  </si>
+  <si>
+    <t>Html.EditAttributes</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EditAttributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extension methods add attributes to an existing element, which makes the content in the element connected to a property on the content data object in edit view, by specifying the content data object property to which the element connects.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Html.BeginEditSection </t>
+  </si>
+  <si>
+    <t>When you render a block, the block property gets edit hints while the individual properties within the block do not get edit hints.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BeginEditSection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EndEditSection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extension methods work as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EditAttributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> by adding attributes that are needed for editing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use the methods when you add attributes to a property that can contain nested properties (such as a block) or when you render a property that can be nested (such as a partial view for a block). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BeginEditSection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ensures that only the outer property get edit hints when there are nested properties.</t>
+    </r>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <r>
+      <t>A content item that supports different statuses implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IVersionable</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The interface contains a property</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> that specifies the current status of the content version.</t>
+    </r>
+  </si>
+  <si>
+    <t>Locked content versions</t>
+  </si>
+  <si>
+    <r>
+      <t>A version can be locked for updates or transitions by implementing interface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentLockEvaluator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Versions currently in state </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AwaitingApproval </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and where there is an approval definition specified for the version are locked for updates by default. Updates can be forced by specifying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SaveAction.SkipValidation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContentLockEvaluator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implementation should be registered in IOC container to be consumed by CMS.</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating a page programmatically</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parent = ContentReference.StartPage;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Decide where you want your new page published in the structure of the website by specifying a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PageReference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object pointing to the desired parent page, such as the start page as in the following code:</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Create a new empty page with default values, according to the property settings of its page type, by specifying the parent under which to create the page and by specifying the page type:
+IContentRepository contentRepository = EPiServer.ServiceLocation.ServiceLocator.Current.GetInstance&lt;IContentRepository&gt;();
+PageData myPage = contentRepository.GetDefault&lt;StandardPage&gt;(parent);</t>
+  </si>
+  <si>
+    <t>3. After you created an empty page under the specified parent page programmatically, specify page property values before you publish the page, as shown in the following example:
+myPage.PageName = "My new page";
+The code example below shows how to define the user defined property MainBody:
+myPage.Property["MainBody"].Value = "&lt;p&gt;This is produced programmatically.&lt;/p&gt;";
+The following case achieves the same with a strongly typed model:
+myPage.MainBody = "&lt;p&gt;This is produced programmatically.&lt;/p&gt;";</t>
+  </si>
+  <si>
+    <t>4. Publish the newly created page by calling the Save method of the DataFactory class:
+contentRepository.Save(myPage, EPiServer.DataAccess.SaveAction.Publish);</t>
+  </si>
+  <si>
+    <t>contentRepository.Save(myPage, EPiServer.DataAccess.SaveAction.Publish, EPiServer.Security.AccessLevel.NoAccess);</t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> The method call requires that the current user has the proper permissions to publish a page in this location. This causes a problem if the current user is an anonymous user and you still want the page to be published programmatically. You can use another overload of the Save method to permit the publishing, even if the current user does not have the necessary permissions:</t>
+    </r>
+  </si>
+  <si>
+    <t>Converting page types for pages</t>
+  </si>
+  <si>
+    <t>You cannot undo a conversion. Content in the database may be removed permanently. Back up your database before performing the conversion. Also run a test conversion to determine whether an undesirable action might occur</t>
+  </si>
+  <si>
+    <t>If you convert a page that is part of a mirroring channel, the conversion mirrors property changes for properties that do not have a changed name. The conversion does not change page types for pages at the destination. To convert the page type at the destination, manually perform an identical operation for the mirrored pages on the destination, or reset the channel and remove the affected pages from the destination.</t>
+  </si>
+  <si>
+    <t>his is useful for example for pages that have accidentally been created using the wrong page type, or if you want to move exisitng pages to a new and enhanced page type.</t>
+  </si>
+  <si>
+    <t>Refactoring content type classes</t>
+  </si>
+  <si>
+    <t>Renaming a content type by GUID</t>
+  </si>
+  <si>
+    <t>Changing the content type for a property</t>
+  </si>
+  <si>
+    <t>Deleting a content type class or property</t>
+  </si>
+  <si>
+    <t>Renaming a content type by API =&gt; When you rename a content type or property using the specific API, create a MigrationStep class with an AddChanges method where you specify the names of the content types or properties, to ensure that the existing properties are renamed, and retain values they had before they were renamed. The API is based on strings to know the names of previous types and properties.  Note: You do not need to manually register the MigrationStep class, since it will be automatically detected.</t>
+  </si>
+  <si>
+    <t>The following criteria are prerequisites before you can change the type of a property. The prerequisites ensure that a change of type in the code does not lose data. </t>
+  </si>
+  <si>
+    <t>The previous or new property type cannot be a block.</t>
+  </si>
+  <si>
+    <r>
+      <t>You must be able to set the previous value to the new type OR you can parse it in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ParseToSelf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method of the new types backing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PropertyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The value of the backing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PropertyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> you are changing to must implement the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System.IConvertible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The backing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PropertyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> also must have its </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> property set to any of the seven first values of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PropertyDataType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> enumeration.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If the new type is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then any previous value cannot be longer than 255 characters.</t>
+    </r>
+  </si>
+  <si>
+    <t>When you delete a content type or property from the code, the system synchronizes the database as much as possible without deleting data (values saved on any page). If there is no data, the content type or property is deleted from the database. If any data is present, the content type or property remains and is marked in admin view as if it is missing its code.</t>
+  </si>
+  <si>
+    <t>Deleting a culture-specific attribute on a property</t>
+  </si>
+  <si>
+    <t>When you manually change a property in admin view from being culture-specific to not being culture-specific, the change may not be reflected on the site when there is culture-specific data stored in the database. If this occurs, an error is logged but makes no change to the property in the database. </t>
+  </si>
+  <si>
+    <t>Multilingual content</t>
+  </si>
+  <si>
+    <r>
+      <t>You can create a content type that implements the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ILocalizable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interface in several language versions. For example, pages and blocks have multilingual support while media and folders do not have multilingual support. For a content type that implements ILocalizable, you can define individual properties as culture-specific, and have different values for each language. Properties that are not culture-specific are common through the different language versions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fallback and replacement settings</t>
+  </si>
+  <si>
+    <t>Use fallback settings when you have translated parts of a site. The site displays the translated parts, but displays parts that are not translated in the fallback language.</t>
+  </si>
+  <si>
+    <t>Either from the edit user interface or programmatically, you can define a language fallback and replacement rules for content, which are inherited by content below the content in the structure where you defined the setting. For example, if you define and enable the fallback language B to replace language A for some part of the structure, a request for content in language A returns the content in language B.</t>
+  </si>
+  <si>
+    <t>You can use replacement while you add a new language to a site but keep it inaccessible to visitors of the site until you have completed translation of the whole structure by disabling the fallback language. Apply fallback settings when content does not exist in a language or if the content is not published for that language.</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> content = Locate.ContentLoader().Get&lt;IContent&gt;(contentLink)</t>
+    </r>
+  </si>
+  <si>
+    <t>is equivalent to:</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> content = Locate.ContentLoader().Get&lt;IContent&gt;(contentLink, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> LoaderOptions() { LanguageLoaderOption.FallbackWithMaster() });</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LanguageLoaderOption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> controls how languages are handled during loading. The overload</t>
+    </r>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <r>
+      <t>When you define a property on a content type, Episerver stores the property as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PropertyDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> class and backs runtime instances of the property type by types inheriting from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PropertyData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. These classes deal with the data inside the property, such as protecting read-only state, preparing data from saving and loading, declaring value type, and so on. PropertyData classes also can provide a default user interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>Episerver returns content items in read-only mode from the API. The following code shows how to access a property that resides on the CurrentPage property on PageBase:</t>
+  </si>
+  <si>
+    <r>
+      <t>Object propertyValue = CurrentPage[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PropertyName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The accessor determines whether the property with the name PropertyName is a property on the page by checking Property defined on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF05149B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IContentData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> implemented by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF05149B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PageData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. It returns the property value, if one exists. If the property is not on the page, a delegate is called to see if the property is found elsewhere. The default delegate looks for the property from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fetch data from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> function (if activated on the current page). The delegate checks the dynamic properties for the page. You can write your own delegate and change this behavior.</t>
+    </r>
+  </si>
+  <si>
+    <t>Accessing a property on a read-only page</t>
+  </si>
+  <si>
+    <t>If the page you are working with is write-enabled, the Property accessor returns properties that are defined on the page; you never get dynamic properties or fetch data from properties when the page is in write mode.</t>
+  </si>
+  <si>
+    <t>Accessing a property on a write-enabled page</t>
+  </si>
+  <si>
+    <t>Why is the property declared as virtual? In the background, a proxy class is created for the page type, and data is loaded from the database to a property carrier (Property), receiving the data. Through Castle (Inversion of Control tool), the properties in the proxy page type are set, and this only works if properties are declared as virtual. If the properties are not declared virtual, you need to implement get/set so they read/write data to the underlying property collection instead.</t>
+  </si>
+  <si>
+    <t>Checking null values in properties</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Episerver does not store properties with an empty value in the database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If you access a property from code, it is always null—not an empty string, 0, or false. This is because null is a very convenient way to check if something is not set by an editor or does not exist on this page. You just have to compare with null regardless of data type.</t>
+    </r>
+  </si>
+  <si>
+    <t>You cannot save dynamic properties or properties that reside on other pages when you are working against DataFactory.Save.</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>Using block as property</t>
+  </si>
+  <si>
+    <t>Blocks in Episerver are reusable smaller content parts that editors can add to pages. Blocks can also be used in code as a property, which is a convenient way to reuse a set of properties in multiple instances. This topic describes how to add and render an existing block as a property in an existing page type.</t>
+  </si>
+  <si>
+    <t>Asset and Media</t>
+  </si>
+  <si>
+    <r>
+      <t>Assets such as blocks and media files, are available from edit view in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assets pane </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in CMS and Commerce. Assets can also be product items in the product catalog in Commerce. A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>media type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> can be for example an image, a video, or a document in a defined file format. </t>
+    </r>
+  </si>
+  <si>
+    <t>Note: Like other content types, media types must first be defined in the content model, to use the built-in functionality for assets. If a media type is not defined on the website, file upload or drag and drop will not work. See Media types and templates to define media types. </t>
+  </si>
+  <si>
+    <t>A "headless CMS" consists of a back-end content repository that can be accessed for example through a RESTful API, providing flexibility when pulling content data into other systems.</t>
+  </si>
+  <si>
+    <t>The headless CMS does not know how content is presented. It is a specialized database, serving content that is transformed into HTML by other systems. Episerver CMS has a powerful presentation layer, and as such is not a headless CMS.</t>
+  </si>
+  <si>
+    <t>However, there are situations where a headless approach is preferred, to provide the ability to pull raw content from outside the presentation layer.</t>
+  </si>
+  <si>
+    <t>The following are example scenarios when a headless approach is useful:</t>
+  </si>
+  <si>
+    <t>To provide content for native applications that are not HTML-based.</t>
+  </si>
+  <si>
+    <t>To integrate with a Point of Sales (POS) network, linking different output systems.</t>
+  </si>
+  <si>
+    <t>To manage content for legacy platforms inside Episerver.</t>
+  </si>
+  <si>
+    <t>Deliver IContent, see Content.</t>
+  </si>
+  <si>
+    <t>Use Episerver Find to query content.</t>
+  </si>
+  <si>
+    <t>Support localized content and multi-site scenarios.</t>
+  </si>
+  <si>
+    <t>Support common querying, filtering, and sorting scenarios.</t>
+  </si>
+  <si>
+    <t>Support returning access-controlled and personalized content.</t>
+  </si>
+  <si>
+    <t>Headless CMS/Content Delivery API</t>
+  </si>
+  <si>
+    <r>
+      <t>A traditional </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-headless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> CMS is built so that the CMS runnning on the server, controls how the content is presented. The "head" is responsible for generating the HTML that is parsed and rendered by the browser.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>headless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> CMS is a back-end only CMS built up as a content repository that makes content accessible through REST APIs for display on multiple devices. The "head" is the front-end, and the "body" is the back-end content repository. The "missing head" is the presentation layer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Content Delivery API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a flexible programming interface that you can use for building this type of solutions, using Episerver as a hub for all content.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The Content Delivery API is a pluggable and configurable web API for querying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IContent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, providing you with the ability to:</t>
+    </r>
+  </si>
+  <si>
+    <t>Dynamic Data Store</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic Data Store (DDS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a component offering an API and infrastructure for the saving, loading and searching of both compile time data types (.NET object instances) and runtime data types (property bags) in shared tables in SQL Server. The component is shipped as part of the Episerver Framework package.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dynamic Data Store has the following advantages:</t>
+  </si>
+  <si>
+    <t>Easy to use for simple data structures</t>
+  </si>
+  <si>
+    <t>Supports LINQ for querying data</t>
+  </si>
+  <si>
+    <t>Does not require custom tables, easy to upgrade/install</t>
+  </si>
+  <si>
+    <t>Supports multiple database tables to isolate stores</t>
+  </si>
+  <si>
+    <t>Supports both typed model and property bags</t>
+  </si>
+  <si>
+    <t>Built-in cache</t>
+  </si>
+  <si>
+    <t>It is not recommended to use DDS for high performance and scalabilty requirements, or when storing very large object graphs (there is no lazy loading support for example). The dynamic nature of DDS might become a bottleneck rather than working in your advantage in these situations and we recommend storing these kind of data in custom tables where the table design and API can be optimized for a specific use case. Alternative technologies for working with database tables in SQL Server include Microsoft’s Entity Framework and NHibernate for .NET. </t>
+  </si>
+  <si>
+    <t>Scheduled jobs</t>
+  </si>
+  <si>
+    <t>Scheduled jobs in Episerver run in the background at preset time intervals and typically perform cleanup and updating tasks. A sample installation of Episerver has several predefined scheduled jobs that are administered in the admin view. You can customize and configure scheduled jobs and create your own. </t>
+  </si>
+  <si>
+    <r>
+      <t>Scheduled jobs are executed in an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anonymous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> context. Because scheduled jobs are executed in the same process as the site, the site's web server must be up and running. To ensure this, use the IIS feature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application Initialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or have a site supervisor periodically ping the site. In Azure Web Apps, enable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Always On</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To implement a scheduled job, create a class that inherits from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.Scheduler.ScheduledJobBase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> base class. Decorate the class with the ScheduledPlugInAttribute and define if the job should be enabled and what interval should be used initially. </t>
+    </r>
+  </si>
+  <si>
+    <t>In the unlikely event the job is repeatedly cancelled, or the job itself is causing the shutdowns, there are a maximum number of 10 start attempts per job.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3543,6 +6316,164 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF005CC5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF323738"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF323738"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0101FD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0101FD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF323738"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF05149B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3558,7 +6489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3575,12 +6506,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF024AA7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF024AA7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF024AA7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF024AA7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3744,11 +6705,78 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4150,7 +7178,7 @@
   <dimension ref="C4:E757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4828,10 +7856,10 @@
       </c>
     </row>
     <row r="172" spans="3:4">
-      <c r="C172" s="61" t="s">
+      <c r="C172" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D172" s="61"/>
+      <c r="D172" s="62"/>
     </row>
     <row r="174" spans="3:4" ht="30">
       <c r="C174" s="2" t="s">
@@ -6575,18 +9603,18 @@
     <row r="592" spans="3:4">
       <c r="D592" s="23"/>
     </row>
-    <row r="593" spans="3:4">
+    <row r="593" spans="3:5">
       <c r="D593" s="24"/>
     </row>
-    <row r="594" spans="3:4">
+    <row r="594" spans="3:5">
       <c r="D594" s="33" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="595" spans="3:4">
+    <row r="595" spans="3:5">
       <c r="D595" s="26"/>
     </row>
-    <row r="596" spans="3:4">
+    <row r="596" spans="3:5">
       <c r="C596" s="2" t="s">
         <v>399</v>
       </c>
@@ -6594,10 +9622,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="597" spans="3:4">
+    <row r="597" spans="3:5">
       <c r="D597" s="23"/>
     </row>
-    <row r="598" spans="3:4" ht="30">
+    <row r="598" spans="3:5" ht="30">
       <c r="C598" s="2" t="s">
         <v>401</v>
       </c>
@@ -6605,25 +9633,25 @@
         <v>402</v>
       </c>
     </row>
-    <row r="599" spans="3:4">
+    <row r="599" spans="3:5">
       <c r="D599" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="600" spans="3:4">
+    <row r="600" spans="3:5">
       <c r="D600" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="601" spans="3:4">
+    <row r="601" spans="3:5">
       <c r="D601" s="34" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="602" spans="3:4">
+    <row r="602" spans="3:5">
       <c r="D602"/>
     </row>
-    <row r="603" spans="3:4" ht="30">
+    <row r="603" spans="3:5" ht="30">
       <c r="C603" s="3" t="s">
         <v>407</v>
       </c>
@@ -6631,20 +9659,35 @@
         <v>406</v>
       </c>
     </row>
-    <row r="604" spans="3:4">
+    <row r="604" spans="3:5">
       <c r="D604"/>
     </row>
-    <row r="605" spans="3:4">
-      <c r="D605"/>
-    </row>
-    <row r="606" spans="3:4">
+    <row r="605" spans="3:5" ht="45">
+      <c r="C605" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="606" spans="3:5">
       <c r="D606"/>
     </row>
-    <row r="607" spans="3:4">
-      <c r="D607"/>
-    </row>
-    <row r="608" spans="3:4">
-      <c r="D608"/>
+    <row r="607" spans="3:5" ht="90">
+      <c r="C607" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E607" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="608" spans="3:5" ht="30">
+      <c r="D608" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="609" spans="4:4">
       <c r="D609"/>
@@ -7109,7 +10152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
@@ -7999,7 +11042,7 @@
       </c>
     </row>
     <row r="203" spans="2:3" ht="30">
-      <c r="C203" s="62" t="s">
+      <c r="C203" s="61" t="s">
         <v>665</v>
       </c>
     </row>
@@ -8382,7 +11425,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3074" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8402,12 +11445,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
+        <control shapeId="3074" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
+        <control shapeId="3073" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8427,9 +11470,794 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
+        <control shapeId="3073" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" ht="60">
+      <c r="B5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30">
+      <c r="C6" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="65" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30">
+      <c r="C11" s="67" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="67" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="67" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="65" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="67" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="65"/>
+    </row>
+    <row r="23" spans="2:3" ht="60">
+      <c r="B23" t="s">
+        <v>686</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="30">
+      <c r="B25" t="s">
+        <v>691</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="45">
+      <c r="C27" s="67" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" s="67" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="30">
+      <c r="C29" s="67" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="45">
+      <c r="B31" t="s">
+        <v>696</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="71" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="60">
+      <c r="C33" s="71" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="31.5">
+      <c r="B35" s="72" t="s">
+        <v>700</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30.75" thickBot="1">
+      <c r="C36" s="71" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C37" s="76" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C38" s="71" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C39" s="76" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="30.75" thickBot="1">
+      <c r="C41" s="71" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C42" s="76" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75">
+      <c r="C44" s="64" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30">
+      <c r="C46" s="78" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="45">
+      <c r="B48" t="s">
+        <v>710</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30">
+      <c r="B50" t="s">
+        <v>712</v>
+      </c>
+      <c r="C50" s="78" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30">
+      <c r="C51" s="78" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>715</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="78" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="78" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="78" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="30">
+      <c r="B58" t="s">
+        <v>720</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="79" t="s">
+        <v>722</v>
+      </c>
+      <c r="C60" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>728</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>730</v>
+      </c>
+      <c r="C68" s="81" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="30">
+      <c r="C69" s="71" t="s">
+        <v>732</v>
+      </c>
+      <c r="D69" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="45">
+      <c r="C70" s="71" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="30">
+      <c r="B72" s="73" t="s">
+        <v>734</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>735</v>
+      </c>
+      <c r="D72" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="45">
+      <c r="B74" s="79" t="s">
+        <v>738</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="45">
+      <c r="B76" s="79" t="s">
+        <v>740</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="45">
+      <c r="B78" s="73" t="s">
+        <v>742</v>
+      </c>
+      <c r="C78" s="78" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="30">
+      <c r="B80" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="C80" s="78" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>746</v>
+      </c>
+      <c r="C82" s="71" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="30">
+      <c r="C83" s="71" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" s="71" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="30">
+      <c r="B86" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" s="78" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="45">
+      <c r="B88" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" s="78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="30.75" thickBot="1">
+      <c r="B90" t="s">
+        <v>754</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C91" s="82" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="60">
+      <c r="C93" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="135">
+      <c r="C95" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="30">
+      <c r="C97" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="99" spans="2:3" ht="45.75" thickBot="1">
+      <c r="C99" s="84" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C100" s="85" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="30">
+      <c r="B102" s="79" t="s">
+        <v>762</v>
+      </c>
+      <c r="C102" s="87" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="30.75">
+      <c r="C103" s="77" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="45.75">
+      <c r="C105" s="77" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="79" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="60">
+      <c r="C109" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="30">
+      <c r="B114" t="s">
+        <v>768</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="C115" s="67" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="C116" s="67" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="C117" s="67" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="C118" s="67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="C119" s="67" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="45.75">
+      <c r="B121" s="79" t="s">
+        <v>769</v>
+      </c>
+      <c r="C121" s="77" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="45.75">
+      <c r="B123" s="79" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="45">
+      <c r="B125" t="s">
+        <v>780</v>
+      </c>
+      <c r="C125" s="78" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="30">
+      <c r="B127" s="79" t="s">
+        <v>782</v>
+      </c>
+      <c r="C127" s="70" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="45">
+      <c r="C128" s="70" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="45.75">
+      <c r="C129" s="77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C131" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C132" s="75" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C133" s="70" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C134" s="75" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="62.25">
+      <c r="B136" t="s">
+        <v>790</v>
+      </c>
+      <c r="C136" s="77" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="30.75" thickBot="1">
+      <c r="B138" s="79" t="s">
+        <v>795</v>
+      </c>
+      <c r="C138" s="88" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C139" s="83" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="60.75">
+      <c r="C140" s="70" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="30.75">
+      <c r="B143" s="79" t="s">
+        <v>797</v>
+      </c>
+      <c r="C143" s="77" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="63">
+      <c r="C146" s="86" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="46.5">
+      <c r="B148" s="79" t="s">
+        <v>799</v>
+      </c>
+      <c r="C148" s="77" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15.75">
+      <c r="B151" t="s">
+        <v>802</v>
+      </c>
+      <c r="C151" s="68" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="30">
+      <c r="B153" t="s">
+        <v>803</v>
+      </c>
+      <c r="C153" s="78" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="30">
+      <c r="B156" t="s">
+        <v>805</v>
+      </c>
+      <c r="C156" s="78" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="30">
+      <c r="C157" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="30">
+      <c r="B159" t="s">
+        <v>820</v>
+      </c>
+      <c r="C159" s="78" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="30">
+      <c r="C161" s="71" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" ht="30">
+      <c r="C162" s="71" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" ht="30">
+      <c r="C163" s="71" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="71" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="71" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="67" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="67" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="67" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="71" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="71" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="89" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="89" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="67" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="67" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="67" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="45">
+      <c r="B177" t="s">
+        <v>825</v>
+      </c>
+      <c r="C177" s="78" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="C179" s="70" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="C180" s="66" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="C181" s="66" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="C182" s="66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="C183" s="66" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="C184" s="66" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="C185" s="66" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" ht="75.75">
+      <c r="C187" s="77" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" ht="30">
+      <c r="B189" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="C189" s="78" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" ht="45">
+      <c r="C190" s="78" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" ht="30">
+      <c r="C191" s="78" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="C192" s="78" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C138" r:id="rId1" display="https://world.episerver.com/documentation/Class-library/?documentId=cms/10/FE0F85B9"/>
+    <hyperlink ref="C157" r:id="rId2" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/assets-and-media/Media-types-and-templates/"/>
+    <hyperlink ref="C171" r:id="rId3" tooltip="Episerver CMS Developer Guide" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/"/>
+    <hyperlink ref="C172" r:id="rId4" tooltip="Episerver Find Developer Guide" display="https://world.episerver.com/documentation/developer-guides/find/NET-Client-API/searching/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+</worksheet>
 </file>
--- a/JS_Course.xlsx
+++ b/JS_Course.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="921">
   <si>
     <t>SpiderMonkey</t>
   </si>
@@ -6061,12 +6061,745 @@
   <si>
     <t>In the unlikely event the job is repeatedly cancelled, or the job itself is causing the shutdowns, there are a maximum number of 10 start attempts per job.</t>
   </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>Shell modules have routes registered to support routing to gadgets.</t>
+  </si>
+  <si>
+    <t>The CMS also registers a number of routes by default.</t>
+  </si>
+  <si>
+    <t>The CMS routes are registered in GlobalBase during initialization; you can override the RegisterRoutes method in Global.asax.cs to customize the registered routes or add additional routes.</t>
+  </si>
+  <si>
+    <t>The class EPiServer.Global also exposes the RoutesRegistrating and RoutesRegistered events, where you can perform custom registrations.</t>
+  </si>
+  <si>
+    <t>The namespace EPiServer.Web.Routing contains some extension methods for the class RouteCollection. You can use those extension methods to register a route on the site or register a partial router. See Partial routing.</t>
+  </si>
+  <si>
+    <t>Among the default routes there is one set up for each:</t>
+  </si>
+  <si>
+    <t>routing a simple address.</t>
+  </si>
+  <si>
+    <t>routing for sites (can be several sites in a multi-site environment).</t>
+  </si>
+  <si>
+    <t>routing pages/content from the root (that is, pages/content not under any start page).</t>
+  </si>
+  <si>
+    <t>The “ordinary” MVC route “{controller}/{action}” also is registered to support partial requests through Html.RenderAction. However, direct browsing to those routes are prevented.</t>
+  </si>
+  <si>
+    <t>Initialization module</t>
+  </si>
+  <si>
+    <t>To create an initialization module you need to inherit from IInitializableModule and set [InitiliazableModule] attribute on your class.</t>
+  </si>
+  <si>
+    <t>Sechudle Jobs</t>
+  </si>
+  <si>
+    <t>To create a schedule job you need to inherit from ScheduledJob base class and ser [ScheduledPlugin] attribute on your class.</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Episerver supports IIS kernel caching and cache expiration settings for files, resources, and images, and manages caching across the web front-end servers, minimizing the amount of communication with the database. Episerver stores the cache and other resources (that are used by the templates) in CMS. You can configure and extend the cache. Episerver supports the caching methods listed below.</t>
+  </si>
+  <si>
+    <t>Object caching</t>
+  </si>
+  <si>
+    <t>Episerver automatically caches objects that are requested from the API, such as content instances. Episerver bases the object cache on the ASP.NET runtime cache and stores only read-only objects for better performance</t>
+  </si>
+  <si>
+    <t>Output caching</t>
+  </si>
+  <si>
+    <t>You can configure rules for browser (client) caching. For example, you can set a time period in which static files delivered by the Episerver CMS are cached by the client. You also can define how long dynamically generated pages are cached on the client.</t>
+  </si>
+  <si>
+    <t>Browser caching</t>
+  </si>
+  <si>
+    <t>File Caching</t>
+  </si>
+  <si>
+    <t>You can cache files from Episerver CMS to the client, or to the client and server. The server cache uses the IIS kernel cache, which delivers files directly by the IIS kernel, offering superior performance. The client cache lets you set a time period to cache a specific folder.</t>
+  </si>
+  <si>
+    <t>Dynamic Data Store (DDS) offers an API and infrastructure for the saving, loading and searching of both compile time data types (.NET object instances) and runtime data types (property bags).</t>
+  </si>
+  <si>
+    <t>DDS caching</t>
+  </si>
+  <si>
+    <t>Static file caching</t>
+  </si>
+  <si>
+    <t>You can configure how Episerver adds the cache information to the response headers at request of static files, so the client can cache files instead of being served by the web server at each request. This significantly reduces the total request time for a client. Use standard IIS settings to configure caching for static files.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IObjectInstanceCache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISynchronizedObjectInstanceCache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interfaces expose the built-in cache system with custom dependency and eviction policies. If you were using the CacheManager class in CMS, you should take a dependency on ISynchronizedObjectInstanceCache instead, because the new interface provides the same functionality. The IObjectInstanceCache supersedes IRuntimeCache (that was previously only used by CMS) because it supports different cache implementations by abstracting the CacheDependency class and other things. The underlying default implementation of IObjectInstanceCache still relies on HttpRuntime.Cache.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blob Storage</t>
+  </si>
+  <si>
+    <t>Blob providers are a framework designed to store large amounts of binary data in an optimized and cost-effective solution, such as cloud storage instead of in a database.</t>
+  </si>
+  <si>
+    <t>Donut caching</t>
+  </si>
+  <si>
+    <t>Donut caching is where you cache the entire page except for one or more parts. It was possible in ASP.NET MVC 1 by using the substitution control, but is not available out of the box in ASP.NET MVC 3</t>
+  </si>
+  <si>
+    <t>Donut hole cachign</t>
+  </si>
+  <si>
+    <t>Donut hole caching is where you cache one or more parts of a page, but not the entire page. It is handled by using the built-in OutputCache attribute on one or more child actions (called using Html.Action or Html.RenderAction from the parent view). It has been available since ASP.NET MVC 3.</t>
+  </si>
+  <si>
+    <t>Episerver bases output caching on the standard ASP.NET Output Caching, and caches the entire rendered markup of a web page or user control for a specified duration. The cache is automatically invalidated when content is updated. You can define dependency rules for the cache, and the website you want to affect. Outpupt cachign is implemented using action filter attribute in asp.net</t>
+  </si>
+  <si>
+    <t>Built-in blob provider for media files such as images, videos, and documents, stored on local disc or a file share that is defined during installation.</t>
+  </si>
+  <si>
+    <t>Customized blob provider for your specific hosting environment, such as blob providers for Microsoft Azure and Amazon Web Services, which are available from the Episerver NuGet feed.</t>
+  </si>
+  <si>
+    <t> Search across all content types such as pages, blocks, files, videos and images, product content in a Commerce product catalog, and community content. Built-in filtering limits the search results to the type of content.</t>
+  </si>
+  <si>
+    <t>Note: You do not get search results on content in blocks added in a content area in a template. Usually, this is not a problem because blocks are often used to promote content in a specific source page, which are found when performing the search.</t>
+  </si>
+  <si>
+    <t>Global Search</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t> Using MVC, the rendering is based on controllers and views, which can be associated with templates for displaying content in certain context, for example, inside other content such as a page, or through different devices and channels.</t>
+  </si>
+  <si>
+    <t>You have many options to control the rendering of any type of content in Episerver. Using templates, you can apply multiple templates for any type of content, and have the system decide when to use which template.</t>
+  </si>
+  <si>
+    <t>These are the main components when working with templates:</t>
+  </si>
+  <si>
+    <r>
+      <t>TemplateDescriptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Attribute used for adding meta data in a template. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TemplateResolver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Used for selecting the template to apply in the current context.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Display channels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Used for previewing and rendering content in different devices and resolutions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Display options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF323738"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Used for controlling the layout of content, for example, in a content area.</t>
+    </r>
+  </si>
+  <si>
+    <t>A content type can have several templates, for example, one for a web channel, and one for a mobile channel. A page can have a partial template to be used when the page is added to a content area. </t>
+  </si>
+  <si>
+    <t>EPiServer.Web.DisplayChannel is a base class that is used for creating display channels, to detect viewport settings, and select templates to render content for a targeted device format.</t>
+  </si>
+  <si>
+    <t>EPIServer DI</t>
+  </si>
+  <si>
+    <r>
+      <t>Dependency injection in Episerver is defined in an abstract API in namespace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EPiServer.ServiceLocation. There is an implementation of the abstraction based on StructureMap in package EPiServer.ServiceLocation.StructureMap. It is possible to use either StructureMap directly or use Episerver's StructureMap abstractions when configuring the IOC container. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We can either register services implicit like </t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007D9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IService</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007D9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    [ServiceConfiguration(ServiceType = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>typeof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(IService))]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007D9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TransientService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007D9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IService</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF007D9A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>throw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0101FD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NotImplementedException();</t>
+    </r>
+  </si>
+  <si>
+    <t>or explicit by using initialization module.</t>
+  </si>
+  <si>
+    <t>or we can use structure map configuration.</t>
+  </si>
+  <si>
+    <t>Personalization</t>
+  </si>
+  <si>
+    <r>
+      <t>Personalization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> provides the possibility to personalize website content to specific visitor groups so that different content will be displayed to different visitors, bringing a more personalized website experience. The personalization feature is based on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>visitor group criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> concept. All EPiServer products contain criteria that are ready to use, but it is also possible to develop your own criteria. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Many base classes (such as PageBase, UserControlBase, and PropertyData) expose the Locate property, which in turn exposes the EPiServer.IContentRepository API. </t>
+  </si>
+  <si>
+    <t>The events system provides a mechanism for distributing events between IIS applications and EPiServer websites in a load balanced environment. The event system in EPiServer is provider-based, and you can either use the built-in event provider or develop your own customized one.</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>The built-in event provider in EPiServer is based on Microsoft Windows Communication Foundation (WCF) and requires some manual WCF configuration steps to enable. It uses either UDP broadcasting or TCP, which requires detailed knowledge about ports, firewalls and endpoints. To use elastic scaling (adding and removing servers on demand) with the WCF provider, you need to use UPD broadcasting since TCP requires you to manually configure all endpoints.</t>
+  </si>
+  <si>
+    <t>Dynamic content</t>
+  </si>
+  <si>
+    <r>
+      <t>EPiServer CMS has a class attribute to simplify the development and registration of a Dynamic Content class. One benefit of using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DynamicContentPlugin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> attribute is that you eliminate the need to manually register your Dynamic Content class in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>episerver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> section of web.config. Only classes that implement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPiServer.DynamicContent.IDynamicContentBase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> may be decorated with this attribute, otherwise the application will throw an exception during startup. However, decorated classes that derive from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System.Web.UI.Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF323738"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> will implicitly implement IDynamicContent.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Dynamic Content concept was introduced in EPiServer CMS before blocks became available. Blocks and dynamic content are somewhat overlapping concepts and we generally recommend blocks where possible. Since EPiServer CMS 7.5, it's possible to drag and drop a block into a rich text area which makes it possible to use the block as a "dynamic content" in the text.</t>
+  </si>
+  <si>
+    <t>Its based on lucene, you can index anything unlike azure where  you have unified index only</t>
+  </si>
+  <si>
+    <t>In Factory pattern, we create object without exposing the creation logic. In this pattern, an interface is used for creating an object, but let subclass decide which class to instantiate. The creation of object is done when it is required. The Factory method allows a class later instantiation to subclasses.</t>
+  </si>
+  <si>
+    <t>Factory pattern</t>
+  </si>
+  <si>
+    <t>Forms in Episerver can be created either by the Episerver Forms add-on or by XForms (Legacy functionality).</t>
+  </si>
+  <si>
+    <t>Epi Forms</t>
+  </si>
+  <si>
+    <t>Episerver Forms is only supported by MVC-based websites and HTML5-compliant browsers.</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Startup class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="61">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6474,8 +7207,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF007D9A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6485,6 +7238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFF0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6541,7 +7300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6772,11 +7531,33 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10150,10 +10931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D203"/>
+  <dimension ref="B3:D205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11044,6 +11825,14 @@
     <row r="203" spans="2:3" ht="30">
       <c r="C203" s="61" t="s">
         <v>665</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="86.25">
+      <c r="B205" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C205" s="39" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -11479,10 +12268,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D192"/>
+  <dimension ref="B5:D277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11505,757 +12294,1137 @@
         <v>668</v>
       </c>
     </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="65" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>679</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C12" s="67" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="30">
-      <c r="C11" s="67" t="s">
+    <row r="13" spans="2:3" ht="30">
+      <c r="C13" s="67" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="C12" s="65" t="s">
+    <row r="14" spans="2:3">
+      <c r="C14" s="65" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>684</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C16" s="67" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="67" t="s">
+    <row r="17" spans="2:3">
+      <c r="C17" s="67" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="67" t="s">
+    <row r="18" spans="2:3">
+      <c r="C18" s="67" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="C17" s="65" t="s">
+    <row r="19" spans="2:3">
+      <c r="C19" s="65" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>690</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C21" s="67" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="67" t="s">
+    <row r="22" spans="2:3">
+      <c r="C22" s="67" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="65"/>
-    </row>
-    <row r="23" spans="2:3" ht="60">
-      <c r="B23" t="s">
+    <row r="23" spans="2:3">
+      <c r="C23" s="65"/>
+    </row>
+    <row r="25" spans="2:3" ht="60">
+      <c r="B25" t="s">
         <v>686</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C25" s="69" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="30">
-      <c r="B25" t="s">
+    <row r="27" spans="2:3" ht="30">
+      <c r="B27" t="s">
         <v>691</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C27" s="69" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="45">
-      <c r="C27" s="67" t="s">
+    <row r="29" spans="2:3" ht="45">
+      <c r="C29" s="67" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="C28" s="67" t="s">
+    <row r="30" spans="2:3">
+      <c r="C30" s="67" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="30">
-      <c r="C29" s="67" t="s">
+    <row r="31" spans="2:3" ht="30">
+      <c r="C31" s="67" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="45">
-      <c r="B31" t="s">
+    <row r="33" spans="2:3" ht="45">
+      <c r="B33" t="s">
         <v>696</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C33" s="71" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="C32" s="71" t="s">
+    <row r="34" spans="2:3">
+      <c r="C34" s="71" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="60">
-      <c r="C33" s="71" t="s">
+    <row r="35" spans="2:3" ht="60">
+      <c r="C35" s="71" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="31.5">
-      <c r="B35" s="72" t="s">
+    <row r="37" spans="2:3" ht="31.5">
+      <c r="B37" s="72" t="s">
         <v>700</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C37" s="74" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30.75" thickBot="1">
-      <c r="C36" s="71" t="s">
+    <row r="38" spans="2:3" ht="30.75" thickBot="1">
+      <c r="C38" s="71" t="s">
         <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C37" s="76" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C38" s="71" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1">
       <c r="C39" s="76" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C40" s="71" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C41" s="76" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="30.75" thickBot="1">
-      <c r="C41" s="71" t="s">
+    <row r="43" spans="2:3" ht="30.75" thickBot="1">
+      <c r="C43" s="71" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C42" s="76" t="s">
+    <row r="44" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C44" s="76" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15.75">
-      <c r="C44" s="64" t="s">
+    <row r="46" spans="2:3" ht="15.75">
+      <c r="C46" s="64" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="30">
-      <c r="C46" s="78" t="s">
+    <row r="48" spans="2:3" ht="30">
+      <c r="C48" s="78" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="45">
-      <c r="B48" t="s">
+    <row r="50" spans="2:4" ht="45">
+      <c r="B50" t="s">
         <v>710</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C50" s="78" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="30">
-      <c r="B50" t="s">
+    <row r="52" spans="2:4" ht="30">
+      <c r="B52" t="s">
         <v>712</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C52" s="78" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" ht="30">
-      <c r="C51" s="78" t="s">
+      <c r="D52" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="30">
+      <c r="C53" s="78" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
         <v>715</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C55" s="78" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="C54" s="78" t="s">
+    <row r="56" spans="2:4">
+      <c r="C56" s="78" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="C55" s="78" t="s">
+    <row r="57" spans="2:4">
+      <c r="C57" s="78" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="C56" s="78" t="s">
+    <row r="58" spans="2:4">
+      <c r="C58" s="78" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="30">
-      <c r="B58" t="s">
+    <row r="60" spans="2:4" ht="30">
+      <c r="B60" t="s">
         <v>720</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C60" s="78" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="79" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="79" t="s">
         <v>722</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="C61" t="s">
+    <row r="63" spans="2:4">
+      <c r="C63" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="C62" t="s">
+    <row r="64" spans="2:4">
+      <c r="C64" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="C63" t="s">
+    <row r="65" spans="2:4">
+      <c r="C65" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="C64" t="s">
+    <row r="66" spans="2:4">
+      <c r="C66" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="s">
-        <v>728</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
+        <v>728</v>
+      </c>
+      <c r="C68" s="80" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
         <v>730</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C70" s="81" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="30">
-      <c r="C69" s="71" t="s">
+    <row r="71" spans="2:4" ht="30">
+      <c r="C71" s="71" t="s">
         <v>732</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="45">
-      <c r="C70" s="71" t="s">
+    <row r="72" spans="2:4" ht="45">
+      <c r="C72" s="71" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="30">
-      <c r="B72" s="73" t="s">
+    <row r="74" spans="2:4" ht="30">
+      <c r="B74" s="73" t="s">
         <v>734</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C74" s="78" t="s">
         <v>735</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>736</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="45">
-      <c r="B74" s="79" t="s">
-        <v>738</v>
-      </c>
-      <c r="C74" s="78" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="45">
       <c r="B76" s="79" t="s">
+        <v>738</v>
+      </c>
+      <c r="C76" s="78" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="45">
+      <c r="B78" s="79" t="s">
         <v>740</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C78" s="78" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="45">
-      <c r="B78" s="73" t="s">
+    <row r="80" spans="2:4" ht="45">
+      <c r="B80" s="73" t="s">
         <v>742</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C80" s="78" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="30">
-      <c r="B80" s="79" t="s">
+    <row r="82" spans="2:3" ht="30">
+      <c r="B82" s="79" t="s">
         <v>744</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C82" s="78" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
         <v>746</v>
       </c>
-      <c r="C82" s="71" t="s">
+      <c r="C84" s="71" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="30">
-      <c r="C83" s="71" t="s">
+    <row r="85" spans="2:3" ht="30">
+      <c r="C85" s="71" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="C84" s="71" t="s">
+    <row r="86" spans="2:3">
+      <c r="C86" s="71" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="30">
-      <c r="B86" t="s">
+    <row r="88" spans="2:3" ht="30">
+      <c r="B88" t="s">
         <v>750</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C88" s="78" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="45">
-      <c r="B88" t="s">
+    <row r="90" spans="2:3" ht="45">
+      <c r="B90" t="s">
         <v>752</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C90" s="78" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="30.75" thickBot="1">
-      <c r="B90" t="s">
+    <row r="92" spans="2:3" ht="30.75" thickBot="1">
+      <c r="B92" t="s">
         <v>754</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C92" s="78" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C91" s="82" t="s">
+    <row r="93" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C93" s="82" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="60">
-      <c r="C93" s="2" t="s">
+    <row r="95" spans="2:3" ht="60">
+      <c r="C95" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="135">
-      <c r="C95" s="2" t="s">
+    <row r="97" spans="2:3" ht="135">
+      <c r="C97" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="30">
-      <c r="C97" s="2" t="s">
+    <row r="99" spans="2:3" ht="30">
+      <c r="C99" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="15.75" thickBot="1"/>
-    <row r="99" spans="2:3" ht="45.75" thickBot="1">
-      <c r="C99" s="84" t="s">
+    <row r="100" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="101" spans="2:3" ht="45.75" thickBot="1">
+      <c r="C101" s="84" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C100" s="85" t="s">
+    <row r="102" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C102" s="85" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="30">
-      <c r="B102" s="79" t="s">
+    <row r="104" spans="2:3" ht="30">
+      <c r="B104" s="79" t="s">
         <v>762</v>
       </c>
-      <c r="C102" s="87" t="s">
+      <c r="C104" s="87" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="30.75">
-      <c r="C103" s="77" t="s">
+    <row r="105" spans="2:3" ht="30.75">
+      <c r="C105" s="77" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="45.75">
-      <c r="C105" s="77" t="s">
+    <row r="107" spans="2:3" ht="45.75">
+      <c r="C107" s="77" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="79" t="s">
+    <row r="109" spans="2:3">
+      <c r="B109" s="79" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="C108" t="s">
+    <row r="110" spans="2:3">
+      <c r="C110" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="60">
-      <c r="C109" s="2" t="s">
+    <row r="111" spans="2:3" ht="60">
+      <c r="C111" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="30">
-      <c r="B114" t="s">
+    <row r="116" spans="2:3" ht="30">
+      <c r="B116" t="s">
         <v>768</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C116" s="71" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="C115" s="67" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="C116" s="67" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="C117" s="67" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="C118" s="67" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="C119" s="67" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" s="67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" s="67" t="s">
         <v>776</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" ht="45.75">
-      <c r="B121" s="79" t="s">
-        <v>769</v>
-      </c>
-      <c r="C121" s="77" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="45.75">
       <c r="B123" s="79" t="s">
+        <v>769</v>
+      </c>
+      <c r="C123" s="77" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="45.75">
+      <c r="B125" s="79" t="s">
         <v>778</v>
       </c>
-      <c r="C123" s="77" t="s">
+      <c r="C125" s="77" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="45">
-      <c r="B125" t="s">
+    <row r="127" spans="2:3" ht="45">
+      <c r="B127" t="s">
         <v>780</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="C127" s="78" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="30">
-      <c r="B127" s="79" t="s">
+    <row r="129" spans="2:3" ht="30">
+      <c r="B129" s="79" t="s">
         <v>782</v>
       </c>
-      <c r="C127" s="70" t="s">
+      <c r="C129" s="70" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="45">
-      <c r="C128" s="70" t="s">
+    <row r="130" spans="2:3" ht="45">
+      <c r="C130" s="70" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="45.75">
-      <c r="C129" s="77" t="s">
+    <row r="131" spans="2:3" ht="45.75">
+      <c r="C131" s="77" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C131" t="s">
+    <row r="133" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C133" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C132" s="75" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C133" s="70" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="15.75" thickBot="1">
       <c r="C134" s="75" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C135" s="70" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C136" s="75" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="62.25">
-      <c r="B136" t="s">
+    <row r="138" spans="2:3" ht="62.25">
+      <c r="B138" t="s">
         <v>790</v>
       </c>
-      <c r="C136" s="77" t="s">
+      <c r="C138" s="77" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="30.75" thickBot="1">
-      <c r="B138" s="79" t="s">
+    <row r="140" spans="2:3" ht="30.75" thickBot="1">
+      <c r="B140" s="79" t="s">
         <v>795</v>
       </c>
-      <c r="C138" s="88" t="s">
+      <c r="C140" s="89" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="15.75" thickBot="1">
-      <c r="C139" s="83" t="s">
+    <row r="141" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C141" s="83" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="60.75">
-      <c r="C140" s="70" t="s">
+    <row r="142" spans="2:3" ht="60.75">
+      <c r="C142" s="70" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="30.75">
-      <c r="B143" s="79" t="s">
+    <row r="145" spans="2:3" ht="30.75">
+      <c r="B145" s="79" t="s">
         <v>797</v>
       </c>
-      <c r="C143" s="77" t="s">
+      <c r="C145" s="77" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="63">
-      <c r="C146" s="86" t="s">
+    <row r="148" spans="2:3" ht="63">
+      <c r="C148" s="86" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="46.5">
-      <c r="B148" s="79" t="s">
+    <row r="150" spans="2:3" ht="46.5">
+      <c r="B150" s="79" t="s">
         <v>799</v>
       </c>
-      <c r="C148" s="77" t="s">
+      <c r="C150" s="77" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="15.75">
-      <c r="B151" t="s">
+    <row r="153" spans="2:3" ht="15.75">
+      <c r="B153" t="s">
         <v>802</v>
       </c>
-      <c r="C151" s="68" t="s">
+      <c r="C153" s="68" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="30">
-      <c r="B153" t="s">
+    <row r="155" spans="2:3" ht="30">
+      <c r="B155" t="s">
         <v>803</v>
       </c>
-      <c r="C153" s="78" t="s">
+      <c r="C155" s="78" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="30">
-      <c r="B156" t="s">
+    <row r="158" spans="2:3" ht="30">
+      <c r="B158" t="s">
         <v>805</v>
       </c>
-      <c r="C156" s="78" t="s">
+      <c r="C158" s="78" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="30">
-      <c r="C157" s="4" t="s">
+    <row r="159" spans="2:3" ht="30">
+      <c r="C159" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="30">
-      <c r="B159" t="s">
+    <row r="161" spans="2:3" ht="30">
+      <c r="B161" t="s">
         <v>820</v>
       </c>
-      <c r="C159" s="78" t="s">
+      <c r="C161" s="78" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="161" spans="3:3" ht="30">
-      <c r="C161" s="71" t="s">
+    <row r="163" spans="2:3" ht="30">
+      <c r="C163" s="71" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="162" spans="3:3" ht="30">
-      <c r="C162" s="71" t="s">
+    <row r="164" spans="2:3" ht="30">
+      <c r="C164" s="71" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="163" spans="3:3" ht="30">
-      <c r="C163" s="71" t="s">
+    <row r="165" spans="2:3" ht="30">
+      <c r="C165" s="71" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
-      <c r="C164" s="71" t="s">
+    <row r="166" spans="2:3">
+      <c r="C166" s="71" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="71" t="s">
+    <row r="167" spans="2:3">
+      <c r="C167" s="71" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="67" t="s">
+    <row r="168" spans="2:3">
+      <c r="C168" s="67" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="3:3">
-      <c r="C167" s="67" t="s">
+    <row r="169" spans="2:3">
+      <c r="C169" s="67" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
-      <c r="C168" s="67" t="s">
+    <row r="170" spans="2:3">
+      <c r="C170" s="67" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="71" t="s">
+    <row r="171" spans="2:3">
+      <c r="C171" s="71" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="71" t="s">
+    <row r="172" spans="2:3">
+      <c r="C172" s="71" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="89" t="s">
+    <row r="173" spans="2:3">
+      <c r="C173" s="90" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="89" t="s">
+    <row r="174" spans="2:3">
+      <c r="C174" s="90" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="67" t="s">
+    <row r="175" spans="2:3">
+      <c r="C175" s="67" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="67" t="s">
+    <row r="176" spans="2:3">
+      <c r="C176" s="67" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="67" t="s">
+    <row r="177" spans="2:3">
+      <c r="C177" s="67" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="45">
-      <c r="B177" t="s">
+    <row r="179" spans="2:3" ht="45">
+      <c r="B179" t="s">
         <v>825</v>
       </c>
-      <c r="C177" s="78" t="s">
+      <c r="C179" s="78" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
-      <c r="C179" s="70" t="s">
+    <row r="181" spans="2:3">
+      <c r="C181" s="70" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3">
-      <c r="C180" s="66" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3">
-      <c r="C181" s="66" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="182" spans="2:3">
       <c r="C182" s="66" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="C183" s="66" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="184" spans="2:3">
       <c r="C184" s="66" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="C185" s="66" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="C186" s="66" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="C187" s="66" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="75.75">
-      <c r="C187" s="77" t="s">
+    <row r="189" spans="2:3" ht="75.75">
+      <c r="C189" s="77" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="30">
-      <c r="B189" s="64" t="s">
+    <row r="191" spans="2:3" ht="30">
+      <c r="B191" s="64" t="s">
         <v>835</v>
       </c>
-      <c r="C189" s="78" t="s">
+      <c r="C191" s="78" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="45">
-      <c r="C190" s="78" t="s">
+    <row r="192" spans="2:3" ht="45">
+      <c r="C192" s="78" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="30">
-      <c r="C191" s="78" t="s">
+    <row r="193" spans="2:3" ht="30">
+      <c r="C193" s="78" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
-      <c r="C192" s="78" t="s">
+    <row r="194" spans="2:3">
+      <c r="C194" s="78" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" t="s">
+        <v>840</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="C197" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" ht="30">
+      <c r="C198" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="C199" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="30">
+      <c r="C200" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="C201" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="C202" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="C203" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="C204" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" ht="30">
+      <c r="C205" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" t="s">
+        <v>851</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" t="s">
+        <v>853</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="45">
+      <c r="B210" t="s">
+        <v>855</v>
+      </c>
+      <c r="C210" s="78" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" ht="30.75">
+      <c r="B212" t="s">
+        <v>857</v>
+      </c>
+      <c r="C212" s="77" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="75">
+      <c r="C213" s="78" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="45">
+      <c r="B214" t="s">
+        <v>859</v>
+      </c>
+      <c r="C214" s="78" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="30">
+      <c r="B216" t="s">
+        <v>861</v>
+      </c>
+      <c r="C216" s="78" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="C217" s="78"/>
+    </row>
+    <row r="218" spans="2:3" ht="30">
+      <c r="B218" t="s">
+        <v>862</v>
+      </c>
+      <c r="C218" s="78" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="30">
+      <c r="B220" t="s">
+        <v>865</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" ht="31.5">
+      <c r="B222" t="s">
+        <v>871</v>
+      </c>
+      <c r="C222" s="92" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" ht="30">
+      <c r="B223" t="s">
+        <v>873</v>
+      </c>
+      <c r="C223" s="91" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" ht="45">
+      <c r="B224" t="s">
+        <v>866</v>
+      </c>
+      <c r="C224" s="78" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" ht="30">
+      <c r="B226" t="s">
+        <v>869</v>
+      </c>
+      <c r="C226" s="78" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="C227" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="30">
+      <c r="C228" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" ht="30">
+      <c r="B230" t="s">
+        <v>880</v>
+      </c>
+      <c r="C230" s="69" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" ht="30">
+      <c r="C231" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" ht="30">
+      <c r="B233" t="s">
+        <v>881</v>
+      </c>
+      <c r="C233" s="78" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="30">
+      <c r="C235" s="70" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="C236" s="70" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="15.75">
+      <c r="C237" s="93" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="15.75">
+      <c r="C238" s="93" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="15.75">
+      <c r="C239" s="94" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="15.75">
+      <c r="C240" s="94" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="30">
+      <c r="C241" s="70" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="30">
+      <c r="C243" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="C244" s="88"/>
+    </row>
+    <row r="245" spans="2:3" ht="45">
+      <c r="B245" t="s">
+        <v>891</v>
+      </c>
+      <c r="C245" s="78" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C246" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C247" s="75" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C248" s="83" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C249" s="83" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C250" s="83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C251" s="83" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C252" s="83" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C253" s="83" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C254" s="83" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C255" s="95" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C256" s="95" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C257" s="95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="15.75" thickBot="1">
+      <c r="C258" s="95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="C260" s="96" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="C261" s="96" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" ht="45">
+      <c r="B264" t="s">
+        <v>904</v>
+      </c>
+      <c r="C264" s="97" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="C266" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="30">
+      <c r="B269" t="s">
+        <v>908</v>
+      </c>
+      <c r="C269" s="78" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="45">
+      <c r="C270" s="78" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="60">
+      <c r="B272" t="s">
+        <v>910</v>
+      </c>
+      <c r="C272" s="78" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="45">
+      <c r="C273" s="78" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="15.75">
+      <c r="B275" t="s">
+        <v>919</v>
+      </c>
+      <c r="C275" s="64" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="15.75">
+      <c r="B277" t="s">
+        <v>917</v>
+      </c>
+      <c r="C277" s="68" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C138" r:id="rId1" display="https://world.episerver.com/documentation/Class-library/?documentId=cms/10/FE0F85B9"/>
-    <hyperlink ref="C157" r:id="rId2" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/assets-and-media/Media-types-and-templates/"/>
-    <hyperlink ref="C171" r:id="rId3" tooltip="Episerver CMS Developer Guide" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/"/>
-    <hyperlink ref="C172" r:id="rId4" tooltip="Episerver Find Developer Guide" display="https://world.episerver.com/documentation/developer-guides/find/NET-Client-API/searching/"/>
+    <hyperlink ref="C140" r:id="rId1" display="https://world.episerver.com/documentation/Class-library/?documentId=cms/10/FE0F85B9"/>
+    <hyperlink ref="C159" r:id="rId2" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/assets-and-media/Media-types-and-templates/"/>
+    <hyperlink ref="C173" r:id="rId3" tooltip="Episerver CMS Developer Guide" display="https://world.episerver.com/documentation/developer-guides/CMS/Content/"/>
+    <hyperlink ref="C174" r:id="rId4" tooltip="Episerver Find Developer Guide" display="https://world.episerver.com/documentation/developer-guides/find/NET-Client-API/searching/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
